--- a/data/542/BOKNA/old/Quarterly_Nominal_SA.xlsx
+++ b/data/542/BOKNA/old/Quarterly_Nominal_SA.xlsx
@@ -665,7 +665,7 @@
     <col min="248" max="248" width="14.0" customWidth="true"/>
     <col min="249" max="249" width="14.0" customWidth="true"/>
     <col min="250" max="250" width="14.0" customWidth="true"/>
-    <col min="251" max="251" width="4.0" customWidth="true"/>
+    <col min="251" max="251" width="14.0" customWidth="true"/>
     <col min="252" max="252" width="4.0" customWidth="true"/>
   </cols>
   <sheetData>
@@ -2690,10 +2690,8 @@
       <c r="IP2" s="5" t="n">
         <v>333071.8</v>
       </c>
-      <c r="IQ2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ2" s="5" t="n">
+        <v>334195.4</v>
       </c>
       <c r="IR2" s="1" t="inlineStr">
         <is>
@@ -3460,10 +3458,8 @@
       <c r="IP3" s="5" t="n">
         <v>239519.8</v>
       </c>
-      <c r="IQ3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ3" s="5" t="n">
+        <v>239708.4</v>
       </c>
       <c r="IR3" s="1" t="inlineStr">
         <is>
@@ -4310,10 +4306,8 @@
       <c r="IP4" s="3" t="n">
         <v>230676.1</v>
       </c>
-      <c r="IQ4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ4" s="3" t="n">
+        <v>230720.1</v>
       </c>
       <c r="IR4" s="1" t="inlineStr">
         <is>
@@ -5160,10 +5154,8 @@
       <c r="IP5" s="3" t="n">
         <v>8843.7</v>
       </c>
-      <c r="IQ5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ5" s="3" t="n">
+        <v>8988.3</v>
       </c>
       <c r="IR5" s="1" t="inlineStr">
         <is>
@@ -5930,10 +5922,8 @@
       <c r="IP6" s="5" t="n">
         <v>93552.0</v>
       </c>
-      <c r="IQ6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ6" s="5" t="n">
+        <v>94486.9</v>
       </c>
       <c r="IR6" s="1" t="inlineStr">
         <is>
@@ -6700,10 +6690,8 @@
       <c r="IP7" s="5" t="n">
         <v>164449.2</v>
       </c>
-      <c r="IQ7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ7" s="5" t="n">
+        <v>164530.0</v>
       </c>
       <c r="IR7" s="1" t="inlineStr">
         <is>
@@ -7470,10 +7458,8 @@
       <c r="IP8" s="5" t="n">
         <v>160143.6</v>
       </c>
-      <c r="IQ8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ8" s="5" t="n">
+        <v>162125.4</v>
       </c>
       <c r="IR8" s="1" t="inlineStr">
         <is>
@@ -8240,10 +8226,8 @@
       <c r="IP9" s="5" t="n">
         <v>76969.1</v>
       </c>
-      <c r="IQ9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ9" s="5" t="n">
+        <v>78714.7</v>
       </c>
       <c r="IR9" s="1" t="inlineStr">
         <is>
@@ -9010,10 +8994,8 @@
       <c r="IP10" s="5" t="n">
         <v>47271.6</v>
       </c>
-      <c r="IQ10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ10" s="5" t="n">
+        <v>46929.8</v>
       </c>
       <c r="IR10" s="1" t="inlineStr">
         <is>
@@ -9780,10 +9762,8 @@
       <c r="IP11" s="5" t="n">
         <v>35902.9</v>
       </c>
-      <c r="IQ11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ11" s="5" t="n">
+        <v>36480.9</v>
       </c>
       <c r="IR11" s="1" t="inlineStr">
         <is>
@@ -10550,10 +10530,8 @@
       <c r="IP12" s="5" t="n">
         <v>4305.6</v>
       </c>
-      <c r="IQ12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ12" s="5" t="n">
+        <v>2404.6</v>
       </c>
       <c r="IR12" s="1" t="inlineStr">
         <is>
@@ -11320,10 +11298,8 @@
       <c r="IP13" s="5" t="n">
         <v>203788.0</v>
       </c>
-      <c r="IQ13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ13" s="5" t="n">
+        <v>221543.3</v>
       </c>
       <c r="IR13" s="1" t="inlineStr">
         <is>
@@ -12090,10 +12066,8 @@
       <c r="IP14" s="5" t="n">
         <v>174504.6</v>
       </c>
-      <c r="IQ14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ14" s="5" t="n">
+        <v>187698.1</v>
       </c>
       <c r="IR14" s="1" t="inlineStr">
         <is>
@@ -12860,10 +12834,8 @@
       <c r="IP15" s="5" t="n">
         <v>190041.8</v>
       </c>
-      <c r="IQ15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ15" s="5" t="n">
+        <v>201569.3</v>
       </c>
       <c r="IR15" s="1" t="inlineStr">
         <is>
@@ -13630,10 +13602,8 @@
       <c r="IP16" s="5" t="n">
         <v>155992.1</v>
       </c>
-      <c r="IQ16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ16" s="5" t="n">
+        <v>167411.5</v>
       </c>
       <c r="IR16" s="1" t="inlineStr">
         <is>
@@ -14400,10 +14370,8 @@
       <c r="IP17" s="5" t="n">
         <v>-264.0</v>
       </c>
-      <c r="IQ17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ17" s="5" t="n">
+        <v>-678.1</v>
       </c>
       <c r="IR17" s="1" t="inlineStr">
         <is>
@@ -15170,10 +15138,8 @@
       <c r="IP18" s="5" t="n">
         <v>9847.0</v>
       </c>
-      <c r="IQ18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ18" s="5" t="n">
+        <v>9121.7</v>
       </c>
       <c r="IR18" s="1" t="inlineStr">
         <is>
@@ -15940,10 +15906,8 @@
       <c r="IP19" s="5" t="n">
         <v>527.4</v>
       </c>
-      <c r="IQ19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ19" s="5" t="n">
+        <v>530.1</v>
       </c>
       <c r="IR19" s="1" t="inlineStr">
         <is>
@@ -16710,10 +16674,8 @@
       <c r="IP20" s="5" t="n">
         <v>126669.1</v>
       </c>
-      <c r="IQ20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ20" s="5" t="n">
+        <v>134254.3</v>
       </c>
       <c r="IR20" s="1" t="inlineStr">
         <is>
@@ -17480,10 +17442,8 @@
       <c r="IP21" s="5" t="n">
         <v>10928.9</v>
       </c>
-      <c r="IQ21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ21" s="5" t="n">
+        <v>8421.0</v>
       </c>
       <c r="IR21" s="1" t="inlineStr">
         <is>
@@ -18250,10 +18210,8 @@
       <c r="IP22" s="5" t="n">
         <v>25981.2</v>
       </c>
-      <c r="IQ22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ22" s="5" t="n">
+        <v>26378.9</v>
       </c>
       <c r="IR22" s="1" t="inlineStr">
         <is>
@@ -19020,10 +18978,8 @@
       <c r="IP23" s="5" t="n">
         <v>44731.8</v>
       </c>
-      <c r="IQ23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ23" s="5" t="n">
+        <v>45064.3</v>
       </c>
       <c r="IR23" s="1" t="inlineStr">
         <is>
@@ -19790,10 +19746,8 @@
       <c r="IP24" s="5" t="n">
         <v>16183.9</v>
       </c>
-      <c r="IQ24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ24" s="5" t="n">
+        <v>16436.3</v>
       </c>
       <c r="IR24" s="1" t="inlineStr">
         <is>
@@ -20560,10 +20514,8 @@
       <c r="IP25" s="5" t="n">
         <v>29914.0</v>
       </c>
-      <c r="IQ25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ25" s="5" t="n">
+        <v>30996.5</v>
       </c>
       <c r="IR25" s="1" t="inlineStr">
         <is>
@@ -21330,10 +21282,8 @@
       <c r="IP26" s="5" t="n">
         <v>37058.5</v>
       </c>
-      <c r="IQ26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ26" s="5" t="n">
+        <v>36642.5</v>
       </c>
       <c r="IR26" s="1" t="inlineStr">
         <is>
@@ -22100,10 +22050,8 @@
       <c r="IP27" s="5" t="n">
         <v>33589.6</v>
       </c>
-      <c r="IQ27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ27" s="5" t="n">
+        <v>34020.2</v>
       </c>
       <c r="IR27" s="1" t="inlineStr">
         <is>
@@ -22870,10 +22818,8 @@
       <c r="IP28" s="5" t="n">
         <v>24748.9</v>
       </c>
-      <c r="IQ28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ28" s="5" t="n">
+        <v>24827.9</v>
       </c>
       <c r="IR28" s="1" t="inlineStr">
         <is>
@@ -23640,10 +23586,8 @@
       <c r="IP29" s="5" t="n">
         <v>24307.2</v>
       </c>
-      <c r="IQ29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ29" s="5" t="n">
+        <v>25052.0</v>
       </c>
       <c r="IR29" s="1" t="inlineStr">
         <is>
@@ -24410,10 +24354,8 @@
       <c r="IP30" s="5" t="n">
         <v>10157.2</v>
       </c>
-      <c r="IQ30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ30" s="5" t="n">
+        <v>9977.6</v>
       </c>
       <c r="IR30" s="1" t="inlineStr">
         <is>
@@ -25180,10 +25122,8 @@
       <c r="IP31" s="5" t="n">
         <v>43345.5</v>
       </c>
-      <c r="IQ31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ31" s="5" t="n">
+        <v>44075.2</v>
       </c>
       <c r="IR31" s="1" t="inlineStr">
         <is>
@@ -25950,10 +25890,8 @@
       <c r="IP32" s="5" t="n">
         <v>511003.2</v>
       </c>
-      <c r="IQ32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ32" s="5" t="n">
+        <v>518021.3</v>
       </c>
       <c r="IR32" s="1" t="inlineStr">
         <is>
@@ -26720,10 +26658,8 @@
       <c r="IP33" s="5" t="n">
         <v>520496.4</v>
       </c>
-      <c r="IQ33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ33" s="5" t="n">
+        <v>521250.9</v>
       </c>
       <c r="IR33" s="1" t="inlineStr">
         <is>
